--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 20211.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>Mat</t>
   </si>
@@ -77,6 +77,42 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ROQUE</t>
+  </si>
+  <si>
+    <t>AULIS</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>CONCEPCION</t>
+  </si>
+  <si>
+    <t>ALDO</t>
+  </si>
+  <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
   </si>
 </sst>
 </file>
@@ -480,16 +516,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>77.27</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -503,16 +542,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>87.09999999999999</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -526,16 +568,19 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>57.89</v>
+      </c>
+      <c r="H4">
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -549,16 +594,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>68.56999999999999</v>
+      </c>
+      <c r="H5">
+        <v>7.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -572,16 +620,19 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="H6">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -640,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -663,7 +714,7 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -686,7 +737,7 @@
         <v>38</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -709,7 +760,7 @@
         <v>35</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -732,7 +783,7 @@
         <v>33</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -794,16 +845,19 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>77.27</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -817,16 +871,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>87.09999999999999</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -840,16 +897,19 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>57.89</v>
+      </c>
+      <c r="H4">
+        <v>8.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -863,16 +923,19 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>68.56999999999999</v>
+      </c>
+      <c r="H5">
+        <v>7.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -886,16 +949,19 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="H6">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -905,7 +971,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -938,6 +1004,98 @@
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920284</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920433</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920253</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Domínguez Burgos Marioscar - Estadisticos 20211.xlsx
+++ b/docentes/Domínguez Burgos Marioscar - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Mat</t>
   </si>
@@ -82,37 +82,70 @@
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
+    <t>DEL CARMEN</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
     <t>ROQUE</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>AULIS</t>
   </si>
   <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
     <t>SERRANO</t>
   </si>
   <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
     <t>CONCEPCION</t>
   </si>
   <si>
+    <t>PERLA</t>
+  </si>
+  <si>
     <t>ALDO</t>
   </si>
   <si>
+    <t>NAOMI</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>JENNIFER</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
     <t>CRISTIAN</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1012,10 +1045,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1029,22 +1062,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920319</v>
+        <v>19330051920377</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1052,22 +1085,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920433</v>
+        <v>19330051920319</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1075,24 +1108,116 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920253</v>
+        <v>19330051920426</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920375</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920369</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920253</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G5">
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920433</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
     </row>
